--- a/somethingelse/新聞.xlsx
+++ b/somethingelse/新聞.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stan\Tasks\west-coast\somethingelse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2016B459-6978-4FD4-8466-EFDAEB289A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FC3394-A6FE-454B-BC47-B42E9CE38C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>協會成立（2022.07）</t>
   </si>
   <si>
-    <t>https://youtu.be/FVcoeId_AvM</t>
-  </si>
-  <si>
     <t>尋訪荷蘭時代福音古道 串連西海岸400年宣教軌跡-GOOD TV NEWS</t>
   </si>
   <si>
@@ -698,12 +695,16 @@
     <t>YouTube</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>https://youtu.be/FVcoeId_AvM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,6 +734,14 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -751,10 +760,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -768,9 +778,13 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1050,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1086,7 +1100,7 @@
     </row>
     <row r="4" spans="1:5" ht="29">
       <c r="A4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -1094,8 +1108,8 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
+      <c r="D4" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1104,13 +1118,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1119,13 +1133,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1134,13 +1148,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1149,13 +1163,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1164,13 +1178,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1179,13 +1193,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1194,13 +1208,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -1209,13 +1223,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -1224,13 +1238,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1239,13 +1253,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1254,16 +1268,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D15" s="4">
         <v>44635</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="43.5">
@@ -1271,13 +1285,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="4">
         <v>44758</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -1286,13 +1300,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -1301,13 +1315,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -1316,13 +1330,13 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -1331,13 +1345,13 @@
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1346,13 +1360,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -1361,13 +1375,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1376,13 +1390,13 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -1391,13 +1405,13 @@
         <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -1406,13 +1420,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -1421,13 +1435,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="4">
         <v>44758</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -1436,348 +1450,351 @@
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="4">
         <v>44759</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" ht="37.5">
       <c r="A28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" ht="37.5">
       <c r="A29" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" ht="43.5">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" ht="43.5">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" ht="43.5">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="43.5">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="37.5">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="43.5">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="29">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="29">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="29">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="29">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="37.5">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" ht="37.5">
       <c r="A41" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" ht="29">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" ht="29">
       <c r="A43" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" ht="37.5">
       <c r="A44" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C44" s="4">
         <v>45262</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" ht="50">
       <c r="A45" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="43.5">
       <c r="A46" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" ht="50">
       <c r="A47" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" ht="50">
       <c r="A48" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" ht="37.5">
       <c r="A49" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="D49" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E49" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{1207EEAF-9372-49D8-94CB-B72F3894E353}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/somethingelse/新聞.xlsx
+++ b/somethingelse/新聞.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stan\Tasks\west-coast\somethingelse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FC3394-A6FE-454B-BC47-B42E9CE38C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34C6D83-1E82-4631-9E5D-814964773F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="138">
   <si>
     <t>這是一份最完整的資訊表格，其中包含您來源中提及的所有連結、其標題/描述、以及可追溯的相關日期。</t>
   </si>
@@ -48,9 +48,6 @@
     <t>YouTube</t>
   </si>
   <si>
-    <t>林素每分享的影片 (協會成立相關)</t>
-  </si>
-  <si>
     <t>協會成立（2022.07）</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>2025.02.14</t>
   </si>
   <si>
-    <t>https://youtu.be/8pUX45SULOM</t>
-  </si>
-  <si>
     <t>TVBS新聞｜為嘉義祈福2024會更好 (聖誕點燈)</t>
   </si>
   <si>
@@ -235,9 +229,6 @@
   </si>
   <si>
     <t>新聞報導</t>
-  </si>
-  <si>
-    <t>西海岸2021聖誕文化節》一家家收割、不斷有人決志！</t>
   </si>
   <si>
     <r>
@@ -629,12 +620,6 @@
     <t>社群媒體</t>
   </si>
   <si>
-    <t>陳凱倫主持 2023 聖誕文化節 (LINE VOOM 貼文)</t>
-  </si>
-  <si>
-    <t>https://linevoom.line.me/post/_deZLA8j6OT5WjNeDsqHZD4eJf2lbLl6miD2CcvE/1170151141426185277</t>
-  </si>
-  <si>
     <t>好消息國度報導-國度瞭望：「第五屆西海岸聖誕文化節」(Facebook)</t>
   </si>
   <si>
@@ -697,6 +682,30 @@
   </si>
   <si>
     <t>https://youtu.be/FVcoeId_AvM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>林素每分享的影片 (協會成立相關)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://youtu.be/8pUX45SULOM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西海岸2021聖誕文化節》一家家收割、不斷有人決志！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn-news.org/News.aspx?EntityID=News&amp;PK=0000000000652e59cfe7837da8dd154a989ccf35e24c872f</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳凱倫主持 2023 聖誕文化節 (LINE VOOM 貼文)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://linevoom.line.me/post/_deZLA8j6OT5WjNeDsqHZD4eJf2lbLl6miD2CcvE/1170151141426185277</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1064,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1100,16 +1109,16 @@
     </row>
     <row r="4" spans="1:5" ht="29">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1118,13 +1127,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
+      <c r="D5" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1133,13 +1142,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1148,13 +1157,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1163,13 +1172,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1178,13 +1187,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1193,13 +1202,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1208,13 +1217,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -1223,13 +1232,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -1238,13 +1247,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1253,13 +1262,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1268,16 +1277,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="4">
         <v>44635</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="43.5">
@@ -1285,13 +1294,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4">
         <v>44758</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -1300,13 +1309,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -1315,13 +1324,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -1330,13 +1339,13 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -1345,13 +1354,13 @@
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1360,13 +1369,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -1375,13 +1384,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1390,13 +1399,13 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -1405,13 +1414,13 @@
         <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -1420,13 +1429,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -1435,13 +1444,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="4">
         <v>44758</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -1450,343 +1459,343 @@
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C27" s="4">
         <v>44759</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" ht="43.5">
+      <c r="A28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" ht="37.5">
-      <c r="A28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>72</v>
+      <c r="D28" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" ht="37.5">
       <c r="A29" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" ht="43.5">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" ht="43.5">
       <c r="A31" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" ht="43.5">
       <c r="A32" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="43.5">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="37.5">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="43.5">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="29">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="29">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="29">
       <c r="A38" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="29">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="37.5">
       <c r="A40" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" ht="37.5">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" ht="29">
       <c r="A42" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" ht="29">
       <c r="A43" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" ht="29">
+      <c r="A44" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" ht="37.5">
-      <c r="A44" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="B44" s="1" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C44" s="4">
         <v>45262</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>119</v>
+      <c r="D44" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" ht="50">
       <c r="A45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="43.5">
       <c r="A46" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" ht="50">
       <c r="A47" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" ht="50">
       <c r="A48" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" ht="37.5">
       <c r="A49" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E49" s="1"/>
     </row>
@@ -1794,6 +1803,9 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{1207EEAF-9372-49D8-94CB-B72F3894E353}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{C128FE34-B2FF-41F8-87C8-9450989255E6}"/>
+    <hyperlink ref="D28" r:id="rId3" xr:uid="{3A78A798-DD17-4D8C-81C2-ED6F57C50EEC}"/>
+    <hyperlink ref="D44" r:id="rId4" xr:uid="{7EAF4487-B132-41C7-8CAF-E729457DC930}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
